--- a/表结构转换/_internal/aaa_etc/表结构转换规则.xlsx
+++ b/表结构转换/_internal/aaa_etc/表结构转换规则.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="开发测试配置" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置1" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oracle_to_gbase" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1020,13 +1021,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1"/>
   <cols>
     <col width="36.6615384615385" customWidth="1" style="1" min="1" max="1"/>
   </cols>
@@ -1046,9 +1047,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>oracle_to_gbase</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>配置2</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1077,7 @@
       <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
     <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
@@ -1522,7 +1530,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col width="9.84615384615385" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.84615384615385" customWidth="1" style="1" min="2" max="2"/>
@@ -1836,7 +1844,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
     <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
@@ -2327,7 +2335,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
     <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
@@ -2366,444 +2374,897 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>bigint</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>bigint</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>blob</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>blob</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>char</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>varchar2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>长度扩长n倍</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>clob</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>datetime</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>datetime</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>datetime</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>decimal</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>decimal</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>decimal</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>longtext</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>longtext</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>decimal</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>nvarchar</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>nvarchar</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>datetime</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr"/>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="0" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>datetime</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr"/>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="0" t="inlineStr">
         <is>
           <t>varchar</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>varchar</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr"/>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="0" t="inlineStr">
         <is>
           <t>varchar2</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>varchar</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
         <is>
           <t>长度扩长n倍</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="0" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5"/>
+  <cols>
+    <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>源类型</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>目标类型</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>长度转换规则</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>长度转换值</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>精度转换规则</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>精度转换值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bigint</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>bigint</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n"/>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>blob</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>blob</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n"/>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>clob</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>clob</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>longtext</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>longtext</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>nvarchar</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>nvarchar</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>varchar2</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>varchar2</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/表结构转换/_internal/aaa_etc/表结构转换规则.xlsx
+++ b/表结构转换/_internal/aaa_etc/表结构转换规则.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="17250" windowHeight="6470" tabRatio="783" firstSheet="2" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="17250" windowHeight="6470" tabRatio="783" firstSheet="2" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置清单" sheetId="1" state="visible" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="4"/>
   <cols>
     <col width="36.6615384615385" customWidth="1" style="1" min="1" max="1"/>
   </cols>
@@ -1054,7 +1054,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>配置2</t>
         </is>
@@ -1840,8 +1840,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -2331,8 +2331,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>blob</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>varchar2</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -2534,16 +2534,24 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
+          <t>长度固定</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr"/>
+          <t>精度固定</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -2558,16 +2566,24 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
+          <t>长度固定</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr"/>
+          <t>精度固定</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -2654,16 +2670,24 @@
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr"/>
+          <t>长度固定</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr"/>
+          <t>精度固定</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -2673,15 +2697,19 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>nvarchar</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr"/>
+          <t>长度扩长n倍</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
@@ -2774,10 +2802,14 @@
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr"/>
+          <t>长度扩长n倍</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>

--- a/表结构转换/_internal/aaa_etc/表结构转换规则.xlsx
+++ b/表结构转换/_internal/aaa_etc/表结构转换规则.xlsx
@@ -9,9 +9,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置清单" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="默认配置" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="开发测试配置" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oracle_to_gbase" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oracle_to_gbase" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1027,7 +1027,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="4" outlineLevelCol="0"/>
   <cols>
     <col width="36.6615384615385" customWidth="1" style="1" min="1" max="1"/>
   </cols>
@@ -1042,21 +1042,21 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>配置1</t>
+          <t>oracle_to_gbase</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>oracle_to_gbase</t>
+          <t>配置2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>配置2</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>配置1</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
   <cols>
     <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
     <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
@@ -1530,7 +1530,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
   <cols>
     <col width="9.84615384615385" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.84615384615385" customWidth="1" style="1" min="2" max="2"/>
@@ -1840,11 +1840,11 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
   <cols>
     <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
     <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>blob</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -1938,15 +1938,19 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr"/>
+          <t>长度扩长n倍</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
@@ -1962,7 +1966,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>clob</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -1986,7 +1990,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -2039,16 +2043,24 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
+          <t>长度固定</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr"/>
+          <t>精度固定</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -2058,21 +2070,29 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
+          <t>长度固定</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr"/>
+          <t>精度固定</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -2130,7 +2150,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>varchar2</t>
+          <t>longtext</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -2154,21 +2174,29 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr"/>
+          <t>长度固定</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr"/>
+          <t>精度固定</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -2178,15 +2206,19 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>nvarchar</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr"/>
+          <t>长度扩长n倍</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
@@ -2202,19 +2234,15 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>varchar2</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>长度固定</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr"/>
       <c r="E15" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
@@ -2230,7 +2258,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>varchar2</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -2254,7 +2282,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -2283,10 +2311,14 @@
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr"/>
+          <t>长度扩长n倍</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
@@ -2302,15 +2334,19 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>varchar2</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr"/>
+          <t>长度扩长n倍</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
@@ -2331,11 +2367,11 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
   <cols>
     <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
     <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
@@ -2389,13 +2425,12 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
+      <c r="D2" s="0" t="n"/>
       <c r="E2" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F2" s="0" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -2405,7 +2440,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>blob</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -2413,13 +2448,12 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
+      <c r="D3" s="0" t="n"/>
       <c r="E3" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -2429,17 +2463,12 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>char</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>长度扩长n倍</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>长度不变</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
@@ -2447,7 +2476,6 @@
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F4" s="0" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -2457,7 +2485,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>clob</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -2465,13 +2493,11 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr"/>
       <c r="E5" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F5" s="0" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -2481,7 +2507,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>date</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -2489,13 +2515,11 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D6" s="0" t="inlineStr"/>
       <c r="E6" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F6" s="0" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -2513,13 +2537,11 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D7" s="0" t="inlineStr"/>
       <c r="E7" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F7" s="0" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -2534,22 +2556,12 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>长度固定</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>36</t>
+          <t>长度不变</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>精度固定</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>精度不变</t>
         </is>
       </c>
     </row>
@@ -2561,27 +2573,17 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>decimal</t>
+          <t>float</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>长度固定</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>36</t>
+          <t>长度不变</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>精度固定</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>精度不变</t>
         </is>
       </c>
     </row>
@@ -2601,13 +2603,11 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D10" s="0" t="inlineStr"/>
       <c r="E10" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F10" s="0" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -2625,13 +2625,11 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr"/>
       <c r="E11" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F11" s="0" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -2649,13 +2647,11 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr"/>
       <c r="E12" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F12" s="0" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -2665,27 +2661,17 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>decimal</t>
+          <t>number</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>长度固定</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>36</t>
+          <t>长度不变</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>精度固定</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>精度不变</t>
         </is>
       </c>
     </row>
@@ -2697,17 +2683,12 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>nvarchar</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>长度扩长n倍</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>长度不变</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
@@ -2715,7 +2696,6 @@
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F14" s="0" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -2733,13 +2713,11 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D15" s="0" t="inlineStr"/>
       <c r="E15" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F15" s="0" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -2749,7 +2727,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -2757,13 +2735,11 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D16" s="0" t="inlineStr"/>
       <c r="E16" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F16" s="0" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -2773,7 +2749,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -2781,13 +2757,11 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D17" s="0" t="inlineStr"/>
       <c r="E17" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F17" s="0" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -2802,12 +2776,7 @@
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>长度扩长n倍</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>长度不变</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -2815,7 +2784,6 @@
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F18" s="0" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -2825,17 +2793,12 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>varchar2</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>长度扩长n倍</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>长度不变</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
@@ -2843,7 +2806,6 @@
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F19" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/表结构转换/_internal/aaa_etc/表结构转换规则.xlsx
+++ b/表结构转换/_internal/aaa_etc/表结构转换规则.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="开发测试配置" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oracle_to_gbase" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1021,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1054,7 +1055,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>配置3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>配置1</t>
         </is>
@@ -1838,7 +1846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F19"/>
@@ -1881,478 +1889,6 @@
           <t>精度转换值</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>bigint</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>bigint</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F2" s="0" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>blob</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>char</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>varchar</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>长度扩长n倍</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>clob</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>长度固定</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>精度固定</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>长度固定</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>精度固定</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr"/>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr"/>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>longtext</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>longtext</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr"/>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>长度固定</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>精度固定</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>nvarchar</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>varchar</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>长度扩长n倍</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr"/>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr"/>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr"/>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>varchar</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>varchar</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>长度扩长n倍</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>varchar2</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>varchar</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>长度扩长n倍</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2824,7 +2360,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
   <cols>
     <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
     <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
@@ -3263,4 +2799,535 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>源类型</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>目标类型</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>长度转换规则</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>长度转换值</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>精度转换规则</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>精度转换值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>bigint</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bigint</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>blob</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>blob</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>clob</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>clob</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>longtext</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>longtext</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>nvarchar</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>nvarchar</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>varchar2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>varchar2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/表结构转换/_internal/aaa_etc/表结构转换规则.xlsx
+++ b/表结构转换/_internal/aaa_etc/表结构转换规则.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="17250" windowHeight="6470" tabRatio="783" firstSheet="2" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6465" tabRatio="783" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置清单" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="默认配置" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="开发测试配置" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oracle_to_gbase" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="配置清单" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="默认配置" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="oracle_to_gbase" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="配置2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="配置3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="配置1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="2">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -33,350 +32,19 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -384,251 +52,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -638,56 +64,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1013,6 +391,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1025,12 +404,12 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col width="36.6615384615385" customWidth="1" style="1" min="1" max="1"/>
+    <col width="36.625" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1079,16 +458,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E19"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.75" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.875" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1120,6 +499,16 @@
       <c r="F1" s="0" t="inlineStr">
         <is>
           <t>精度转换值</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>长度缺省默认值</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>精度缺省默认值</t>
         </is>
       </c>
     </row>
@@ -1532,20 +921,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col width="9.84615384615385" customWidth="1" style="1" min="1" max="1"/>
-    <col width="8.84615384615385" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
-    <col width="10.7692307692308" customWidth="1" style="1" min="4" max="4"/>
-    <col width="12.7692307692308" customWidth="1" style="1" min="5" max="5"/>
-    <col width="10.7692307692308" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12.75" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.875" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1579,6 +964,16 @@
           <t>精度转换值</t>
         </is>
       </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>长度缺省默认值</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>精度缺省默认值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -1593,12 +988,10 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>长度扩长n倍</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>3</v>
-      </c>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n"/>
       <c r="E2" s="0" t="inlineStr">
         <is>
           <t>精度不变</t>
@@ -1618,19 +1011,14 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>长度固定</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>24</v>
-      </c>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n"/>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>精度固定</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>6</v>
+          <t>精度不变</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1666,6 +1054,16 @@
           <t>clob</t>
         </is>
       </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -1678,6 +1076,16 @@
           <t>date</t>
         </is>
       </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -1690,6 +1098,16 @@
           <t>datetime</t>
         </is>
       </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -1702,6 +1120,16 @@
           <t>decimal</t>
         </is>
       </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -1714,6 +1142,16 @@
           <t>float</t>
         </is>
       </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -1726,6 +1164,16 @@
           <t>int</t>
         </is>
       </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -1738,6 +1186,16 @@
           <t>integer</t>
         </is>
       </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -1750,6 +1208,16 @@
           <t>longtext</t>
         </is>
       </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -1762,6 +1230,16 @@
           <t>number</t>
         </is>
       </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -1774,6 +1252,16 @@
           <t>nvarchar</t>
         </is>
       </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -1786,6 +1274,16 @@
           <t>text</t>
         </is>
       </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -1798,6 +1296,16 @@
           <t>time</t>
         </is>
       </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -1810,6 +1318,16 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -1822,6 +1340,16 @@
           <t>varchar</t>
         </is>
       </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -1832,6 +1360,16 @@
       <c r="B19" s="0" t="inlineStr">
         <is>
           <t>varchar2</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
         </is>
       </c>
     </row>
@@ -1846,16 +1384,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.75" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.875" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1887,6 +1425,414 @@
       <c r="F1" s="0" t="inlineStr">
         <is>
           <t>精度转换值</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>长度缺省默认值</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>精度缺省默认值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bigint</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>bigint</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n"/>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>blob</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>blob</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n"/>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>clob</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>clob</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>longtext</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>longtext</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>nvarchar</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>nvarchar</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>varchar2</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>varchar2</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>精度不变</t>
         </is>
       </c>
     </row>
@@ -1901,16 +1847,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.75" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.875" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1942,6 +1888,16 @@
       <c r="F1" s="0" t="inlineStr">
         <is>
           <t>精度转换值</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>长度缺省默认值</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>精度缺省默认值</t>
         </is>
       </c>
     </row>
@@ -2354,16 +2310,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.75" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.875" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2397,457 +2353,14 @@
           <t>精度转换值</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>bigint</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>bigint</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="n"/>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>blob</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>blob</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n"/>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>char</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>char</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>clob</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>clob</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>longtext</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>longtext</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>nvarchar</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>nvarchar</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>varchar</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>varchar</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>varchar2</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>varchar2</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="0"/>
-  <cols>
-    <col width="12.7692307692308" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.9230769230769" customWidth="1" style="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>源类型</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>目标类型</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>长度转换规则</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>长度转换值</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>精度转换规则</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>精度转换值</t>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>长度缺省默认值</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>精度缺省默认值</t>
         </is>
       </c>
     </row>
@@ -3067,23 +2580,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>长度固定</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+          <t>精度固定</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3145,7 +2674,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3153,21 +2682,29 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3205,15 +2742,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>长度固定</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>精度不变</t>

--- a/表结构转换/_internal/aaa_etc/表结构转换规则.xlsx
+++ b/表结构转换/_internal/aaa_etc/表结构转换规则.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6465" tabRatio="783" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="配置清单" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="默认配置" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="oracle_to_gbase" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="配置2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="配置3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="配置1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置清单" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="默认配置" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oracle_to_mysql" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mysql_to_oracle" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -401,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -422,28 +420,14 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>oracle_to_gbase</t>
+          <t>oracle_to_mysql</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>配置2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>配置3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>配置1</t>
+          <t>mysql_to_oracle</t>
         </is>
       </c>
     </row>
@@ -976,402 +960,472 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>bigint</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>bigint</t>
         </is>
       </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="n"/>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>blob</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>blob</t>
         </is>
       </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n"/>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>char</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>char</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>clob</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>clob</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>datetime</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>datetime</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>decimal</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>decimal</t>
         </is>
       </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>longtext</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>longtext</t>
         </is>
       </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>nvarchar</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>nvarchar</t>
         </is>
       </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>varchar</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>varchar</t>
         </is>
       </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>varchar2</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>varchar2</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1439,932 +1493,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>bigint</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>bigint</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="n"/>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>blob</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>blob</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n"/>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>char</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>char</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>clob</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>clob</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>longtext</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>longtext</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>nvarchar</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>nvarchar</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>varchar</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>varchar</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>varchar2</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>varchar2</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="0"/>
-  <cols>
-    <col width="12.75" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.875" customWidth="1" style="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>源类型</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>目标类型</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>长度转换规则</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>长度转换值</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>精度转换规则</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>精度转换值</t>
-        </is>
-      </c>
-      <c r="G1" s="0" t="inlineStr">
-        <is>
-          <t>长度缺省默认值</t>
-        </is>
-      </c>
-      <c r="H1" s="0" t="inlineStr">
-        <is>
-          <t>精度缺省默认值</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>bigint</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>bigint</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="n"/>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>blob</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>blob</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n"/>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>char</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>char</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>clob</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>clob</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>decimal</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>longtext</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>longtext</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>nvarchar</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>nvarchar</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>varchar</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>varchar</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>varchar2</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>varchar2</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>长度不变</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>精度不变</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="0"/>
-  <cols>
-    <col width="12.75" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.875" customWidth="1" style="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>源类型</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>目标类型</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>长度转换规则</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>长度转换值</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>精度转换规则</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>精度转换值</t>
-        </is>
-      </c>
-      <c r="G1" s="0" t="inlineStr">
-        <is>
-          <t>长度缺省默认值</t>
-        </is>
-      </c>
-      <c r="H1" s="0" t="inlineStr">
-        <is>
-          <t>精度缺省默认值</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>bigint</t>
@@ -2528,7 +1656,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>decimal</t>
+          <t>number</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2554,7 +1682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>number</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2580,39 +1708,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>decimal</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长度固定</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>精度固定</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>精度不变</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2674,7 +1786,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>decimal</t>
+          <t>number</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2682,31 +1794,15 @@
           <t>长度不变</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>精度不变</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2716,7 +1812,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nvarchar</t>
+          <t>varchar2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2742,19 +1838,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长度固定</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>长度不变</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>精度不变</t>
@@ -2824,7 +1916,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>varchar2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
